--- a/020-内部設計/023-検索機能/SearchResult/クラス仕様書_SearchResultService.xlsx
+++ b/020-内部設計/023-検索機能/SearchResult/クラス仕様書_SearchResultService.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{297952FD-00DB-4FDA-8495-AF7171EB4AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BCF1B0-93BB-4361-9E43-65D4B00EC408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
     <sheet name="メソッド仕様（メソッド名）" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="50">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -221,24 +221,97 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部署管理</t>
-    <rPh sb="0" eb="4">
-      <t>ブショカンリ</t>
+    <t>商品情報管理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部署情報出力</t>
-    <rPh sb="0" eb="6">
-      <t>ブショジョウホウシュツリョク</t>
+    <t>商品検索処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部署検索サービス</t>
+    <t>商品検索出力</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品情報を取得するクラス</t>
     <rPh sb="0" eb="4">
-      <t>ブショケンサク</t>
+      <t>ショウヒンジョウホウ</t>
     </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchResultService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>com.bh.ecsite.service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田 隼輔</t>
+    <rPh sb="0" eb="5">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【コンストラクタ】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトコンストラクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>処理なし</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execute</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,6 +948,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -887,6 +963,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -896,20 +984,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -920,83 +1023,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,11 +1062,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IY22"/>
+  <dimension ref="A1:IY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1335,81 +1408,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="77" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="76" t="s">
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="77" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="76" t="s">
-        <v>37</v>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="95" t="s">
+        <v>38</v>
       </c>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="77" t="s">
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="77" t="s">
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95"/>
+      <c r="AY1" s="95"/>
+      <c r="AZ1" s="95"/>
+      <c r="BA1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="82"/>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="82"/>
-      <c r="BI1" s="82"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="94">
+        <v>45916</v>
+      </c>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1609,78 +1686,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="77" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="77" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="76">
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="95" t="str">
         <f>G6</f>
-        <v>0</v>
+        <v>SearchResultService</v>
       </c>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="77" t="s">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="77" t="s">
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="82"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="82"/>
-      <c r="BI2" s="82"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1880,402 +1957,410 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="79"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="79"/>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="79"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="89"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="90"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="78" t="s">
-        <v>38</v>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="88" t="s">
+        <v>37</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="79"/>
-      <c r="BB5" s="79"/>
-      <c r="BC5" s="79"/>
-      <c r="BD5" s="79"/>
-      <c r="BE5" s="79"/>
-      <c r="BF5" s="79"/>
-      <c r="BG5" s="79"/>
-      <c r="BH5" s="79"/>
-      <c r="BI5" s="80"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="89"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="89"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="89"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="89"/>
+      <c r="BI5" s="90"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="79"/>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="79"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
-      <c r="AL6" s="79"/>
-      <c r="AM6" s="79"/>
-      <c r="AN6" s="79"/>
-      <c r="AO6" s="79"/>
-      <c r="AP6" s="79"/>
-      <c r="AQ6" s="79"/>
-      <c r="AR6" s="79"/>
-      <c r="AS6" s="79"/>
-      <c r="AT6" s="79"/>
-      <c r="AU6" s="79"/>
-      <c r="AV6" s="79"/>
-      <c r="AW6" s="79"/>
-      <c r="AX6" s="79"/>
-      <c r="AY6" s="79"/>
-      <c r="AZ6" s="79"/>
-      <c r="BA6" s="79"/>
-      <c r="BB6" s="79"/>
-      <c r="BC6" s="79"/>
-      <c r="BD6" s="79"/>
-      <c r="BE6" s="79"/>
-      <c r="BF6" s="79"/>
-      <c r="BG6" s="79"/>
-      <c r="BH6" s="79"/>
-      <c r="BI6" s="80"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="90"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="79"/>
-      <c r="AQ7" s="79"/>
-      <c r="AR7" s="79"/>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="79"/>
-      <c r="AU7" s="79"/>
-      <c r="AV7" s="79"/>
-      <c r="AW7" s="79"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="79"/>
-      <c r="AZ7" s="79"/>
-      <c r="BA7" s="79"/>
-      <c r="BB7" s="79"/>
-      <c r="BC7" s="79"/>
-      <c r="BD7" s="79"/>
-      <c r="BE7" s="79"/>
-      <c r="BF7" s="79"/>
-      <c r="BG7" s="79"/>
-      <c r="BH7" s="79"/>
-      <c r="BI7" s="80"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="89"/>
+      <c r="BC7" s="89"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="89"/>
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="89"/>
+      <c r="BI7" s="90"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="79"/>
-      <c r="AQ8" s="79"/>
-      <c r="AR8" s="79"/>
-      <c r="AS8" s="79"/>
-      <c r="AT8" s="79"/>
-      <c r="AU8" s="79"/>
-      <c r="AV8" s="79"/>
-      <c r="AW8" s="79"/>
-      <c r="AX8" s="79"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="79"/>
-      <c r="BA8" s="79"/>
-      <c r="BB8" s="79"/>
-      <c r="BC8" s="79"/>
-      <c r="BD8" s="79"/>
-      <c r="BE8" s="79"/>
-      <c r="BF8" s="79"/>
-      <c r="BG8" s="79"/>
-      <c r="BH8" s="79"/>
-      <c r="BI8" s="80"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
+      <c r="BH8" s="89"/>
+      <c r="BI8" s="90"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="78" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="75" t="s">
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="93" t="s">
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="93"/>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="93"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="93"/>
-      <c r="BA9" s="93"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="93"/>
-      <c r="BF9" s="93"/>
-      <c r="BG9" s="93"/>
-      <c r="BH9" s="93"/>
-      <c r="BI9" s="93"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="87"/>
+      <c r="BA9" s="87"/>
+      <c r="BB9" s="87"/>
+      <c r="BC9" s="87"/>
+      <c r="BD9" s="87"/>
+      <c r="BE9" s="87"/>
+      <c r="BF9" s="87"/>
+      <c r="BG9" s="87"/>
+      <c r="BH9" s="87"/>
+      <c r="BI9" s="87"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2287,142 +2372,154 @@
       <c r="B12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="84" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="84" t="s">
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="90" t="s">
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90" t="s">
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="90"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="88" t="s">
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="84"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="84"/>
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="85"/>
-      <c r="DI12" s="84" t="s">
+      <c r="BB12" s="71"/>
+      <c r="BC12" s="71"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="71"/>
+      <c r="BF12" s="71"/>
+      <c r="BG12" s="71"/>
+      <c r="BH12" s="72"/>
+      <c r="DI12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="DJ12" s="84"/>
-      <c r="DK12" s="84"/>
-      <c r="DL12" s="84"/>
-      <c r="DM12" s="84"/>
-      <c r="DN12" s="84"/>
-      <c r="DO12" s="84"/>
-      <c r="DP12" s="85"/>
+      <c r="DJ12" s="71"/>
+      <c r="DK12" s="71"/>
+      <c r="DL12" s="71"/>
+      <c r="DM12" s="71"/>
+      <c r="DN12" s="71"/>
+      <c r="DO12" s="71"/>
+      <c r="DP12" s="72"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>1</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="91"/>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="91"/>
-      <c r="AJ13" s="91"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="91"/>
-      <c r="AN13" s="91"/>
-      <c r="AO13" s="91"/>
-      <c r="AP13" s="91"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="91"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="91"/>
-      <c r="AV13" s="91"/>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="91"/>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="91"/>
-      <c r="BA13" s="89"/>
+      <c r="C13" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="93"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="84" t="s">
+        <v>48</v>
+      </c>
       <c r="BB13" s="73"/>
       <c r="BC13" s="73"/>
       <c r="BD13" s="73"/>
@@ -2441,145 +2538,155 @@
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="84" t="s">
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="84" t="s">
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="90" t="s">
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90" t="s">
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="92" t="s">
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="92"/>
-      <c r="AM16" s="92"/>
-      <c r="AN16" s="92"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="92"/>
-      <c r="AQ16" s="92"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="92"/>
-      <c r="AT16" s="92"/>
-      <c r="AU16" s="92"/>
-      <c r="AV16" s="92"/>
-      <c r="AW16" s="92"/>
-      <c r="AX16" s="92"/>
-      <c r="AY16" s="92"/>
-      <c r="AZ16" s="88"/>
-      <c r="BA16" s="84" t="s">
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="91"/>
+      <c r="AO16" s="91"/>
+      <c r="AP16" s="91"/>
+      <c r="AQ16" s="91"/>
+      <c r="AR16" s="91"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="92"/>
+      <c r="BA16" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="BB16" s="84"/>
-      <c r="BC16" s="84"/>
-      <c r="BD16" s="84"/>
-      <c r="BE16" s="84"/>
-      <c r="BF16" s="84"/>
-      <c r="BG16" s="84"/>
-      <c r="BH16" s="85"/>
+      <c r="BB16" s="71"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="71"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="71"/>
+      <c r="BG16" s="71"/>
+      <c r="BH16" s="72"/>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="32">
         <v>1</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="95" t="s">
+      <c r="C17" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95" t="s">
-        <v>28</v>
+      <c r="AE17" s="85"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="83" t="s">
+        <v>47</v>
       </c>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="94"/>
-      <c r="AJ17" s="94"/>
-      <c r="AK17" s="94"/>
-      <c r="AL17" s="94"/>
-      <c r="AM17" s="94"/>
-      <c r="AN17" s="94"/>
-      <c r="AO17" s="94"/>
-      <c r="AP17" s="94"/>
-      <c r="AQ17" s="94"/>
-      <c r="AR17" s="94"/>
-      <c r="AS17" s="94"/>
-      <c r="AT17" s="94"/>
-      <c r="AU17" s="94"/>
-      <c r="AV17" s="94"/>
-      <c r="AW17" s="94"/>
-      <c r="AX17" s="94"/>
-      <c r="AY17" s="94"/>
-      <c r="AZ17" s="89"/>
-      <c r="BA17" s="73"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="83"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="83"/>
+      <c r="AO17" s="83"/>
+      <c r="AP17" s="83"/>
+      <c r="AQ17" s="83"/>
+      <c r="AR17" s="83"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="84"/>
+      <c r="BA17" s="73" t="s">
+        <v>48</v>
+      </c>
       <c r="BB17" s="73"/>
       <c r="BC17" s="73"/>
       <c r="BD17" s="73"/>
@@ -2589,596 +2696,147 @@
       <c r="BH17" s="74"/>
     </row>
     <row r="19" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="18" t="s">
-        <v>33</v>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="33"/>
-      <c r="AY19" s="33"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="33"/>
-      <c r="BB19" s="33"/>
-      <c r="BC19" s="33"/>
-      <c r="BD19" s="33"/>
-      <c r="BE19" s="33"/>
-      <c r="BF19" s="33"/>
-      <c r="BG19" s="33"/>
-      <c r="BH19" s="33"/>
-      <c r="BI19" s="39"/>
-      <c r="BJ19" s="33"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-      <c r="BV19" s="1"/>
-      <c r="BW19" s="1"/>
-      <c r="BX19" s="1"/>
-      <c r="BY19" s="1"/>
-      <c r="BZ19" s="1"/>
-      <c r="CA19" s="1"/>
-      <c r="CB19" s="1"/>
-      <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
-      <c r="CI19" s="1"/>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
-      <c r="CL19" s="1"/>
-      <c r="CM19" s="1"/>
-      <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
-      <c r="CU19" s="1"/>
-      <c r="CV19" s="1"/>
-      <c r="CW19" s="1"/>
-      <c r="CX19" s="1"/>
-      <c r="CY19" s="1"/>
-      <c r="CZ19" s="1"/>
-      <c r="DA19" s="1"/>
-      <c r="DB19" s="1"/>
-      <c r="DC19" s="1"/>
-      <c r="DD19" s="1"/>
-      <c r="DE19" s="1"/>
-      <c r="DF19" s="1"/>
-      <c r="DG19" s="1"/>
-      <c r="DH19" s="1"/>
-      <c r="DI19" s="1"/>
-      <c r="DJ19" s="1"/>
-      <c r="DK19" s="1"/>
-      <c r="DL19" s="1"/>
-      <c r="DM19" s="1"/>
-      <c r="DN19" s="1"/>
-      <c r="DO19" s="1"/>
-      <c r="DP19" s="1"/>
-      <c r="DQ19" s="1"/>
-      <c r="DR19" s="1"/>
-      <c r="DS19" s="1"/>
-      <c r="DT19" s="1"/>
-      <c r="DU19" s="1"/>
-      <c r="DV19" s="1"/>
-      <c r="DW19" s="1"/>
-      <c r="DX19" s="1"/>
-      <c r="DY19" s="1"/>
-      <c r="DZ19" s="1"/>
-      <c r="EA19" s="1"/>
-      <c r="EB19" s="1"/>
-      <c r="EC19" s="1"/>
-      <c r="ED19" s="1"/>
-      <c r="EE19" s="1"/>
-      <c r="EF19" s="1"/>
-      <c r="EG19" s="1"/>
-      <c r="EH19" s="1"/>
-      <c r="EI19" s="1"/>
-      <c r="EJ19" s="1"/>
-      <c r="EK19" s="1"/>
-      <c r="EL19" s="1"/>
-      <c r="EM19" s="1"/>
-      <c r="EN19" s="1"/>
-      <c r="EO19" s="1"/>
-      <c r="EP19" s="1"/>
-      <c r="EQ19" s="1"/>
-      <c r="ER19" s="1"/>
-      <c r="ES19" s="1"/>
-      <c r="ET19" s="1"/>
-      <c r="EU19" s="1"/>
-      <c r="EV19" s="1"/>
-      <c r="EW19" s="1"/>
-      <c r="EX19" s="1"/>
-      <c r="EY19" s="1"/>
-      <c r="EZ19" s="1"/>
-      <c r="FA19" s="1"/>
-      <c r="FB19" s="1"/>
-      <c r="FC19" s="1"/>
-      <c r="FD19" s="1"/>
-      <c r="FE19" s="1"/>
-      <c r="FF19" s="1"/>
-      <c r="FG19" s="1"/>
-      <c r="FH19" s="1"/>
-      <c r="FI19" s="1"/>
-      <c r="FJ19" s="1"/>
-      <c r="FK19" s="1"/>
-      <c r="FL19" s="1"/>
-      <c r="FM19" s="1"/>
-      <c r="FN19" s="1"/>
-      <c r="FO19" s="1"/>
-      <c r="FP19" s="1"/>
-      <c r="FQ19" s="1"/>
-      <c r="FR19" s="1"/>
-      <c r="FS19" s="1"/>
-      <c r="FT19" s="1"/>
-      <c r="FU19" s="1"/>
-      <c r="FV19" s="1"/>
-      <c r="FW19" s="1"/>
-      <c r="FX19" s="1"/>
-      <c r="FY19" s="1"/>
-      <c r="FZ19" s="1"/>
-      <c r="GA19" s="1"/>
-      <c r="GB19" s="1"/>
-      <c r="GC19" s="1"/>
-      <c r="GD19" s="1"/>
-      <c r="GE19" s="1"/>
-      <c r="GF19" s="1"/>
-      <c r="GG19" s="1"/>
-      <c r="GH19" s="1"/>
-      <c r="GI19" s="1"/>
-      <c r="GJ19" s="1"/>
-      <c r="GK19" s="1"/>
-      <c r="GL19" s="1"/>
-      <c r="GM19" s="1"/>
-      <c r="GN19" s="1"/>
-      <c r="GO19" s="1"/>
-      <c r="GP19" s="1"/>
-      <c r="GQ19" s="1"/>
-      <c r="GR19" s="1"/>
-      <c r="GS19" s="1"/>
-      <c r="GT19" s="1"/>
-      <c r="GU19" s="1"/>
-      <c r="GV19" s="1"/>
-      <c r="GW19" s="1"/>
-      <c r="GX19" s="1"/>
-      <c r="GY19" s="1"/>
-      <c r="GZ19" s="1"/>
-      <c r="HA19" s="1"/>
-      <c r="HB19" s="1"/>
-      <c r="HC19" s="1"/>
-      <c r="HD19" s="1"/>
-      <c r="HE19" s="1"/>
-      <c r="HF19" s="1"/>
-      <c r="HG19" s="1"/>
-      <c r="HH19" s="1"/>
-      <c r="HI19" s="1"/>
-      <c r="HJ19" s="1"/>
-      <c r="HK19" s="1"/>
-      <c r="HL19" s="1"/>
-      <c r="HM19" s="1"/>
-      <c r="HN19" s="1"/>
-      <c r="HO19" s="1"/>
-      <c r="HP19" s="1"/>
-      <c r="HQ19" s="1"/>
-      <c r="HR19" s="1"/>
-      <c r="HS19" s="1"/>
-      <c r="HT19" s="1"/>
-      <c r="HU19" s="1"/>
-      <c r="HV19" s="1"/>
-      <c r="HW19" s="1"/>
-      <c r="HX19" s="1"/>
-      <c r="HY19" s="1"/>
-      <c r="HZ19" s="1"/>
-      <c r="IA19" s="1"/>
-      <c r="IB19" s="1"/>
-      <c r="IC19" s="1"/>
-      <c r="ID19" s="1"/>
-      <c r="IE19" s="1"/>
-      <c r="IF19" s="1"/>
-      <c r="IG19" s="1"/>
-      <c r="IH19" s="1"/>
-      <c r="II19" s="1"/>
-      <c r="IJ19" s="1"/>
-      <c r="IK19" s="1"/>
-      <c r="IL19" s="1"/>
-      <c r="IM19" s="1"/>
-      <c r="IN19" s="1"/>
-      <c r="IO19" s="1"/>
-      <c r="IP19" s="1"/>
-      <c r="IQ19" s="1"/>
-      <c r="IR19" s="1"/>
-      <c r="IS19" s="1"/>
-      <c r="IT19" s="1"/>
-      <c r="IU19" s="1"/>
-      <c r="IV19" s="1"/>
-      <c r="IW19" s="1"/>
-      <c r="IX19" s="1"/>
-      <c r="IY19" s="1"/>
     </row>
     <row r="20" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
       <c r="B20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90" t="s">
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90" t="s">
-        <v>35</v>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="71" t="s">
+        <v>19</v>
       </c>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="96" t="s">
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="97"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="97"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="97"/>
-      <c r="AN20" s="97"/>
-      <c r="AO20" s="97"/>
-      <c r="AP20" s="97"/>
-      <c r="AQ20" s="97"/>
-      <c r="AR20" s="97"/>
-      <c r="AS20" s="97"/>
-      <c r="AT20" s="97"/>
-      <c r="AU20" s="97"/>
-      <c r="AV20" s="97"/>
-      <c r="AW20" s="97"/>
-      <c r="AX20" s="97"/>
-      <c r="AY20" s="97"/>
-      <c r="AZ20" s="98"/>
-      <c r="BA20" s="84" t="s">
+      <c r="AH20" s="91"/>
+      <c r="AI20" s="91"/>
+      <c r="AJ20" s="91"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="91"/>
+      <c r="AN20" s="91"/>
+      <c r="AO20" s="91"/>
+      <c r="AP20" s="91"/>
+      <c r="AQ20" s="91"/>
+      <c r="AR20" s="91"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="91"/>
+      <c r="AV20" s="91"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="91"/>
+      <c r="AY20" s="91"/>
+      <c r="AZ20" s="92"/>
+      <c r="BA20" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="BB20" s="84"/>
-      <c r="BC20" s="84"/>
-      <c r="BD20" s="84"/>
-      <c r="BE20" s="84"/>
-      <c r="BF20" s="84"/>
-      <c r="BG20" s="84"/>
-      <c r="BH20" s="85"/>
-      <c r="BI20" s="38"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-      <c r="BN20" s="1"/>
-      <c r="BO20" s="1"/>
-      <c r="BP20" s="1"/>
-      <c r="BQ20" s="1"/>
-      <c r="BR20" s="1"/>
-      <c r="BS20" s="1"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="1"/>
-      <c r="BV20" s="1"/>
-      <c r="BW20" s="1"/>
-      <c r="BX20" s="1"/>
-      <c r="BY20" s="1"/>
-      <c r="BZ20" s="1"/>
-      <c r="CA20" s="1"/>
-      <c r="CB20" s="1"/>
-      <c r="CC20" s="1"/>
-      <c r="CD20" s="1"/>
-      <c r="CE20" s="1"/>
-      <c r="CF20" s="1"/>
-      <c r="CG20" s="1"/>
-      <c r="CH20" s="1"/>
-      <c r="CI20" s="1"/>
-      <c r="CJ20" s="1"/>
-      <c r="CK20" s="1"/>
-      <c r="CL20" s="1"/>
-      <c r="CM20" s="1"/>
-      <c r="CN20" s="1"/>
-      <c r="CO20" s="1"/>
-      <c r="CP20" s="1"/>
-      <c r="CQ20" s="1"/>
-      <c r="CR20" s="1"/>
-      <c r="CS20" s="1"/>
-      <c r="CT20" s="1"/>
-      <c r="CU20" s="1"/>
-      <c r="CV20" s="1"/>
-      <c r="CW20" s="1"/>
-      <c r="CX20" s="1"/>
-      <c r="CY20" s="1"/>
-      <c r="CZ20" s="1"/>
-      <c r="DA20" s="1"/>
-      <c r="DB20" s="1"/>
-      <c r="DC20" s="1"/>
-      <c r="DD20" s="1"/>
-      <c r="DE20" s="1"/>
-      <c r="DF20" s="1"/>
-      <c r="DG20" s="1"/>
-      <c r="DH20" s="1"/>
-      <c r="DI20" s="1"/>
-      <c r="DJ20" s="1"/>
-      <c r="DK20" s="1"/>
-      <c r="DL20" s="1"/>
-      <c r="DM20" s="1"/>
-      <c r="DN20" s="1"/>
-      <c r="DO20" s="1"/>
-      <c r="DP20" s="1"/>
-      <c r="DQ20" s="1"/>
-      <c r="DR20" s="1"/>
-      <c r="DS20" s="1"/>
-      <c r="DT20" s="1"/>
-      <c r="DU20" s="1"/>
-      <c r="DV20" s="1"/>
-      <c r="DW20" s="1"/>
-      <c r="DX20" s="1"/>
-      <c r="DY20" s="1"/>
-      <c r="DZ20" s="1"/>
-      <c r="EA20" s="1"/>
-      <c r="EB20" s="1"/>
-      <c r="EC20" s="1"/>
-      <c r="ED20" s="1"/>
-      <c r="EE20" s="1"/>
-      <c r="EF20" s="1"/>
-      <c r="EG20" s="1"/>
-      <c r="EH20" s="1"/>
-      <c r="EI20" s="1"/>
-      <c r="EJ20" s="1"/>
-      <c r="EK20" s="1"/>
-      <c r="EL20" s="1"/>
-      <c r="EM20" s="1"/>
-      <c r="EN20" s="1"/>
-      <c r="EO20" s="1"/>
-      <c r="EP20" s="1"/>
-      <c r="EQ20" s="1"/>
-      <c r="ER20" s="1"/>
-      <c r="ES20" s="1"/>
-      <c r="ET20" s="1"/>
-      <c r="EU20" s="1"/>
-      <c r="EV20" s="1"/>
-      <c r="EW20" s="1"/>
-      <c r="EX20" s="1"/>
-      <c r="EY20" s="1"/>
-      <c r="EZ20" s="1"/>
-      <c r="FA20" s="1"/>
-      <c r="FB20" s="1"/>
-      <c r="FC20" s="1"/>
-      <c r="FD20" s="1"/>
-      <c r="FE20" s="1"/>
-      <c r="FF20" s="1"/>
-      <c r="FG20" s="1"/>
-      <c r="FH20" s="1"/>
-      <c r="FI20" s="1"/>
-      <c r="FJ20" s="1"/>
-      <c r="FK20" s="1"/>
-      <c r="FL20" s="1"/>
-      <c r="FM20" s="1"/>
-      <c r="FN20" s="1"/>
-      <c r="FO20" s="1"/>
-      <c r="FP20" s="1"/>
-      <c r="FQ20" s="1"/>
-      <c r="FR20" s="1"/>
-      <c r="FS20" s="1"/>
-      <c r="FT20" s="1"/>
-      <c r="FU20" s="1"/>
-      <c r="FV20" s="1"/>
-      <c r="FW20" s="1"/>
-      <c r="FX20" s="1"/>
-      <c r="FY20" s="1"/>
-      <c r="FZ20" s="1"/>
-      <c r="GA20" s="1"/>
-      <c r="GB20" s="1"/>
-      <c r="GC20" s="1"/>
-      <c r="GD20" s="1"/>
-      <c r="GE20" s="1"/>
-      <c r="GF20" s="1"/>
-      <c r="GG20" s="1"/>
-      <c r="GH20" s="1"/>
-      <c r="GI20" s="1"/>
-      <c r="GJ20" s="1"/>
-      <c r="GK20" s="1"/>
-      <c r="GL20" s="1"/>
-      <c r="GM20" s="1"/>
-      <c r="GN20" s="1"/>
-      <c r="GO20" s="1"/>
-      <c r="GP20" s="1"/>
-      <c r="GQ20" s="1"/>
-      <c r="GR20" s="1"/>
-      <c r="GS20" s="1"/>
-      <c r="GT20" s="1"/>
-      <c r="GU20" s="1"/>
-      <c r="GV20" s="1"/>
-      <c r="GW20" s="1"/>
-      <c r="GX20" s="1"/>
-      <c r="GY20" s="1"/>
-      <c r="GZ20" s="1"/>
-      <c r="HA20" s="1"/>
-      <c r="HB20" s="1"/>
-      <c r="HC20" s="1"/>
-      <c r="HD20" s="1"/>
-      <c r="HE20" s="1"/>
-      <c r="HF20" s="1"/>
-      <c r="HG20" s="1"/>
-      <c r="HH20" s="1"/>
-      <c r="HI20" s="1"/>
-      <c r="HJ20" s="1"/>
-      <c r="HK20" s="1"/>
-      <c r="HL20" s="1"/>
-      <c r="HM20" s="1"/>
-      <c r="HN20" s="1"/>
-      <c r="HO20" s="1"/>
-      <c r="HP20" s="1"/>
-      <c r="HQ20" s="1"/>
-      <c r="HR20" s="1"/>
-      <c r="HS20" s="1"/>
-      <c r="HT20" s="1"/>
-      <c r="HU20" s="1"/>
-      <c r="HV20" s="1"/>
-      <c r="HW20" s="1"/>
-      <c r="HX20" s="1"/>
-      <c r="HY20" s="1"/>
-      <c r="HZ20" s="1"/>
-      <c r="IA20" s="1"/>
-      <c r="IB20" s="1"/>
-      <c r="IC20" s="1"/>
-      <c r="ID20" s="1"/>
-      <c r="IE20" s="1"/>
-      <c r="IF20" s="1"/>
-      <c r="IG20" s="1"/>
-      <c r="IH20" s="1"/>
-      <c r="II20" s="1"/>
-      <c r="IJ20" s="1"/>
-      <c r="IK20" s="1"/>
-      <c r="IL20" s="1"/>
-      <c r="IM20" s="1"/>
-      <c r="IN20" s="1"/>
-      <c r="IO20" s="1"/>
-      <c r="IP20" s="1"/>
-      <c r="IQ20" s="1"/>
-      <c r="IR20" s="1"/>
-      <c r="IS20" s="1"/>
-      <c r="IT20" s="1"/>
-      <c r="IU20" s="1"/>
-      <c r="IV20" s="1"/>
-      <c r="IW20" s="1"/>
-      <c r="IX20" s="1"/>
-      <c r="IY20" s="1"/>
+      <c r="BB20" s="71"/>
+      <c r="BC20" s="71"/>
+      <c r="BD20" s="71"/>
+      <c r="BE20" s="71"/>
+      <c r="BF20" s="71"/>
+      <c r="BG20" s="71"/>
+      <c r="BH20" s="72"/>
     </row>
     <row r="21" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
       <c r="B21" s="32">
         <v>1</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="71"/>
-      <c r="AP21" s="71"/>
-      <c r="AQ21" s="71"/>
-      <c r="AR21" s="71"/>
-      <c r="AS21" s="71"/>
-      <c r="AT21" s="71"/>
-      <c r="AU21" s="71"/>
-      <c r="AV21" s="71"/>
-      <c r="AW21" s="71"/>
-      <c r="AX21" s="71"/>
-      <c r="AY21" s="71"/>
-      <c r="AZ21" s="72"/>
+      <c r="C21" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="83"/>
+      <c r="AO21" s="83"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="83"/>
+      <c r="AR21" s="83"/>
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83"/>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="84"/>
       <c r="BA21" s="73"/>
       <c r="BB21" s="73"/>
       <c r="BC21" s="73"/>
@@ -3187,503 +2845,1107 @@
       <c r="BF21" s="73"/>
       <c r="BG21" s="73"/>
       <c r="BH21" s="74"/>
-      <c r="BI21" s="38"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
-      <c r="BM21" s="1"/>
-      <c r="BN21" s="1"/>
-      <c r="BO21" s="1"/>
-      <c r="BP21" s="1"/>
-      <c r="BQ21" s="1"/>
-      <c r="BR21" s="1"/>
-      <c r="BS21" s="1"/>
-      <c r="BT21" s="1"/>
-      <c r="BU21" s="1"/>
-      <c r="BV21" s="1"/>
-      <c r="BW21" s="1"/>
-      <c r="BX21" s="1"/>
-      <c r="BY21" s="1"/>
-      <c r="BZ21" s="1"/>
-      <c r="CA21" s="1"/>
-      <c r="CB21" s="1"/>
-      <c r="CC21" s="1"/>
-      <c r="CD21" s="1"/>
-      <c r="CE21" s="1"/>
-      <c r="CF21" s="1"/>
-      <c r="CG21" s="1"/>
-      <c r="CH21" s="1"/>
-      <c r="CI21" s="1"/>
-      <c r="CJ21" s="1"/>
-      <c r="CK21" s="1"/>
-      <c r="CL21" s="1"/>
-      <c r="CM21" s="1"/>
-      <c r="CN21" s="1"/>
-      <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
-      <c r="CR21" s="1"/>
-      <c r="CS21" s="1"/>
-      <c r="CT21" s="1"/>
-      <c r="CU21" s="1"/>
-      <c r="CV21" s="1"/>
-      <c r="CW21" s="1"/>
-      <c r="CX21" s="1"/>
-      <c r="CY21" s="1"/>
-      <c r="CZ21" s="1"/>
-      <c r="DA21" s="1"/>
-      <c r="DB21" s="1"/>
-      <c r="DC21" s="1"/>
-      <c r="DD21" s="1"/>
-      <c r="DE21" s="1"/>
-      <c r="DF21" s="1"/>
-      <c r="DG21" s="1"/>
-      <c r="DH21" s="1"/>
-      <c r="DI21" s="1"/>
-      <c r="DJ21" s="1"/>
-      <c r="DK21" s="1"/>
-      <c r="DL21" s="1"/>
-      <c r="DM21" s="1"/>
-      <c r="DN21" s="1"/>
-      <c r="DO21" s="1"/>
-      <c r="DP21" s="1"/>
-      <c r="DQ21" s="1"/>
-      <c r="DR21" s="1"/>
-      <c r="DS21" s="1"/>
-      <c r="DT21" s="1"/>
-      <c r="DU21" s="1"/>
-      <c r="DV21" s="1"/>
-      <c r="DW21" s="1"/>
-      <c r="DX21" s="1"/>
-      <c r="DY21" s="1"/>
-      <c r="DZ21" s="1"/>
-      <c r="EA21" s="1"/>
-      <c r="EB21" s="1"/>
-      <c r="EC21" s="1"/>
-      <c r="ED21" s="1"/>
-      <c r="EE21" s="1"/>
-      <c r="EF21" s="1"/>
-      <c r="EG21" s="1"/>
-      <c r="EH21" s="1"/>
-      <c r="EI21" s="1"/>
-      <c r="EJ21" s="1"/>
-      <c r="EK21" s="1"/>
-      <c r="EL21" s="1"/>
-      <c r="EM21" s="1"/>
-      <c r="EN21" s="1"/>
-      <c r="EO21" s="1"/>
-      <c r="EP21" s="1"/>
-      <c r="EQ21" s="1"/>
-      <c r="ER21" s="1"/>
-      <c r="ES21" s="1"/>
-      <c r="ET21" s="1"/>
-      <c r="EU21" s="1"/>
-      <c r="EV21" s="1"/>
-      <c r="EW21" s="1"/>
-      <c r="EX21" s="1"/>
-      <c r="EY21" s="1"/>
-      <c r="EZ21" s="1"/>
-      <c r="FA21" s="1"/>
-      <c r="FB21" s="1"/>
-      <c r="FC21" s="1"/>
-      <c r="FD21" s="1"/>
-      <c r="FE21" s="1"/>
-      <c r="FF21" s="1"/>
-      <c r="FG21" s="1"/>
-      <c r="FH21" s="1"/>
-      <c r="FI21" s="1"/>
-      <c r="FJ21" s="1"/>
-      <c r="FK21" s="1"/>
-      <c r="FL21" s="1"/>
-      <c r="FM21" s="1"/>
-      <c r="FN21" s="1"/>
-      <c r="FO21" s="1"/>
-      <c r="FP21" s="1"/>
-      <c r="FQ21" s="1"/>
-      <c r="FR21" s="1"/>
-      <c r="FS21" s="1"/>
-      <c r="FT21" s="1"/>
-      <c r="FU21" s="1"/>
-      <c r="FV21" s="1"/>
-      <c r="FW21" s="1"/>
-      <c r="FX21" s="1"/>
-      <c r="FY21" s="1"/>
-      <c r="FZ21" s="1"/>
-      <c r="GA21" s="1"/>
-      <c r="GB21" s="1"/>
-      <c r="GC21" s="1"/>
-      <c r="GD21" s="1"/>
-      <c r="GE21" s="1"/>
-      <c r="GF21" s="1"/>
-      <c r="GG21" s="1"/>
-      <c r="GH21" s="1"/>
-      <c r="GI21" s="1"/>
-      <c r="GJ21" s="1"/>
-      <c r="GK21" s="1"/>
-      <c r="GL21" s="1"/>
-      <c r="GM21" s="1"/>
-      <c r="GN21" s="1"/>
-      <c r="GO21" s="1"/>
-      <c r="GP21" s="1"/>
-      <c r="GQ21" s="1"/>
-      <c r="GR21" s="1"/>
-      <c r="GS21" s="1"/>
-      <c r="GT21" s="1"/>
-      <c r="GU21" s="1"/>
-      <c r="GV21" s="1"/>
-      <c r="GW21" s="1"/>
-      <c r="GX21" s="1"/>
-      <c r="GY21" s="1"/>
-      <c r="GZ21" s="1"/>
-      <c r="HA21" s="1"/>
-      <c r="HB21" s="1"/>
-      <c r="HC21" s="1"/>
-      <c r="HD21" s="1"/>
-      <c r="HE21" s="1"/>
-      <c r="HF21" s="1"/>
-      <c r="HG21" s="1"/>
-      <c r="HH21" s="1"/>
-      <c r="HI21" s="1"/>
-      <c r="HJ21" s="1"/>
-      <c r="HK21" s="1"/>
-      <c r="HL21" s="1"/>
-      <c r="HM21" s="1"/>
-      <c r="HN21" s="1"/>
-      <c r="HO21" s="1"/>
-      <c r="HP21" s="1"/>
-      <c r="HQ21" s="1"/>
-      <c r="HR21" s="1"/>
-      <c r="HS21" s="1"/>
-      <c r="HT21" s="1"/>
-      <c r="HU21" s="1"/>
-      <c r="HV21" s="1"/>
-      <c r="HW21" s="1"/>
-      <c r="HX21" s="1"/>
-      <c r="HY21" s="1"/>
-      <c r="HZ21" s="1"/>
-      <c r="IA21" s="1"/>
-      <c r="IB21" s="1"/>
-      <c r="IC21" s="1"/>
-      <c r="ID21" s="1"/>
-      <c r="IE21" s="1"/>
-      <c r="IF21" s="1"/>
-      <c r="IG21" s="1"/>
-      <c r="IH21" s="1"/>
-      <c r="II21" s="1"/>
-      <c r="IJ21" s="1"/>
-      <c r="IK21" s="1"/>
-      <c r="IL21" s="1"/>
-      <c r="IM21" s="1"/>
-      <c r="IN21" s="1"/>
-      <c r="IO21" s="1"/>
-      <c r="IP21" s="1"/>
-      <c r="IQ21" s="1"/>
-      <c r="IR21" s="1"/>
-      <c r="IS21" s="1"/>
-      <c r="IT21" s="1"/>
-      <c r="IU21" s="1"/>
-      <c r="IV21" s="1"/>
-      <c r="IW21" s="1"/>
-      <c r="IX21" s="1"/>
-      <c r="IY21" s="1"/>
     </row>
-    <row r="22" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="32">
+    <row r="23" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="33"/>
+      <c r="AP23" s="33"/>
+      <c r="AQ23" s="33"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="33"/>
+      <c r="AT23" s="33"/>
+      <c r="AU23" s="33"/>
+      <c r="AV23" s="33"/>
+      <c r="AW23" s="33"/>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="33"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="33"/>
+      <c r="BB23" s="33"/>
+      <c r="BC23" s="33"/>
+      <c r="BD23" s="33"/>
+      <c r="BE23" s="33"/>
+      <c r="BF23" s="33"/>
+      <c r="BG23" s="33"/>
+      <c r="BH23" s="33"/>
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="33"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
+      <c r="CW23" s="1"/>
+      <c r="CX23" s="1"/>
+      <c r="CY23" s="1"/>
+      <c r="CZ23" s="1"/>
+      <c r="DA23" s="1"/>
+      <c r="DB23" s="1"/>
+      <c r="DC23" s="1"/>
+      <c r="DD23" s="1"/>
+      <c r="DE23" s="1"/>
+      <c r="DF23" s="1"/>
+      <c r="DG23" s="1"/>
+      <c r="DH23" s="1"/>
+      <c r="DI23" s="1"/>
+      <c r="DJ23" s="1"/>
+      <c r="DK23" s="1"/>
+      <c r="DL23" s="1"/>
+      <c r="DM23" s="1"/>
+      <c r="DN23" s="1"/>
+      <c r="DO23" s="1"/>
+      <c r="DP23" s="1"/>
+      <c r="DQ23" s="1"/>
+      <c r="DR23" s="1"/>
+      <c r="DS23" s="1"/>
+      <c r="DT23" s="1"/>
+      <c r="DU23" s="1"/>
+      <c r="DV23" s="1"/>
+      <c r="DW23" s="1"/>
+      <c r="DX23" s="1"/>
+      <c r="DY23" s="1"/>
+      <c r="DZ23" s="1"/>
+      <c r="EA23" s="1"/>
+      <c r="EB23" s="1"/>
+      <c r="EC23" s="1"/>
+      <c r="ED23" s="1"/>
+      <c r="EE23" s="1"/>
+      <c r="EF23" s="1"/>
+      <c r="EG23" s="1"/>
+      <c r="EH23" s="1"/>
+      <c r="EI23" s="1"/>
+      <c r="EJ23" s="1"/>
+      <c r="EK23" s="1"/>
+      <c r="EL23" s="1"/>
+      <c r="EM23" s="1"/>
+      <c r="EN23" s="1"/>
+      <c r="EO23" s="1"/>
+      <c r="EP23" s="1"/>
+      <c r="EQ23" s="1"/>
+      <c r="ER23" s="1"/>
+      <c r="ES23" s="1"/>
+      <c r="ET23" s="1"/>
+      <c r="EU23" s="1"/>
+      <c r="EV23" s="1"/>
+      <c r="EW23" s="1"/>
+      <c r="EX23" s="1"/>
+      <c r="EY23" s="1"/>
+      <c r="EZ23" s="1"/>
+      <c r="FA23" s="1"/>
+      <c r="FB23" s="1"/>
+      <c r="FC23" s="1"/>
+      <c r="FD23" s="1"/>
+      <c r="FE23" s="1"/>
+      <c r="FF23" s="1"/>
+      <c r="FG23" s="1"/>
+      <c r="FH23" s="1"/>
+      <c r="FI23" s="1"/>
+      <c r="FJ23" s="1"/>
+      <c r="FK23" s="1"/>
+      <c r="FL23" s="1"/>
+      <c r="FM23" s="1"/>
+      <c r="FN23" s="1"/>
+      <c r="FO23" s="1"/>
+      <c r="FP23" s="1"/>
+      <c r="FQ23" s="1"/>
+      <c r="FR23" s="1"/>
+      <c r="FS23" s="1"/>
+      <c r="FT23" s="1"/>
+      <c r="FU23" s="1"/>
+      <c r="FV23" s="1"/>
+      <c r="FW23" s="1"/>
+      <c r="FX23" s="1"/>
+      <c r="FY23" s="1"/>
+      <c r="FZ23" s="1"/>
+      <c r="GA23" s="1"/>
+      <c r="GB23" s="1"/>
+      <c r="GC23" s="1"/>
+      <c r="GD23" s="1"/>
+      <c r="GE23" s="1"/>
+      <c r="GF23" s="1"/>
+      <c r="GG23" s="1"/>
+      <c r="GH23" s="1"/>
+      <c r="GI23" s="1"/>
+      <c r="GJ23" s="1"/>
+      <c r="GK23" s="1"/>
+      <c r="GL23" s="1"/>
+      <c r="GM23" s="1"/>
+      <c r="GN23" s="1"/>
+      <c r="GO23" s="1"/>
+      <c r="GP23" s="1"/>
+      <c r="GQ23" s="1"/>
+      <c r="GR23" s="1"/>
+      <c r="GS23" s="1"/>
+      <c r="GT23" s="1"/>
+      <c r="GU23" s="1"/>
+      <c r="GV23" s="1"/>
+      <c r="GW23" s="1"/>
+      <c r="GX23" s="1"/>
+      <c r="GY23" s="1"/>
+      <c r="GZ23" s="1"/>
+      <c r="HA23" s="1"/>
+      <c r="HB23" s="1"/>
+      <c r="HC23" s="1"/>
+      <c r="HD23" s="1"/>
+      <c r="HE23" s="1"/>
+      <c r="HF23" s="1"/>
+      <c r="HG23" s="1"/>
+      <c r="HH23" s="1"/>
+      <c r="HI23" s="1"/>
+      <c r="HJ23" s="1"/>
+      <c r="HK23" s="1"/>
+      <c r="HL23" s="1"/>
+      <c r="HM23" s="1"/>
+      <c r="HN23" s="1"/>
+      <c r="HO23" s="1"/>
+      <c r="HP23" s="1"/>
+      <c r="HQ23" s="1"/>
+      <c r="HR23" s="1"/>
+      <c r="HS23" s="1"/>
+      <c r="HT23" s="1"/>
+      <c r="HU23" s="1"/>
+      <c r="HV23" s="1"/>
+      <c r="HW23" s="1"/>
+      <c r="HX23" s="1"/>
+      <c r="HY23" s="1"/>
+      <c r="HZ23" s="1"/>
+      <c r="IA23" s="1"/>
+      <c r="IB23" s="1"/>
+      <c r="IC23" s="1"/>
+      <c r="ID23" s="1"/>
+      <c r="IE23" s="1"/>
+      <c r="IF23" s="1"/>
+      <c r="IG23" s="1"/>
+      <c r="IH23" s="1"/>
+      <c r="II23" s="1"/>
+      <c r="IJ23" s="1"/>
+      <c r="IK23" s="1"/>
+      <c r="IL23" s="1"/>
+      <c r="IM23" s="1"/>
+      <c r="IN23" s="1"/>
+      <c r="IO23" s="1"/>
+      <c r="IP23" s="1"/>
+      <c r="IQ23" s="1"/>
+      <c r="IR23" s="1"/>
+      <c r="IS23" s="1"/>
+      <c r="IT23" s="1"/>
+      <c r="IU23" s="1"/>
+      <c r="IV23" s="1"/>
+      <c r="IW23" s="1"/>
+      <c r="IX23" s="1"/>
+      <c r="IY23" s="1"/>
+    </row>
+    <row r="24" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="79"/>
+      <c r="AL24" s="79"/>
+      <c r="AM24" s="79"/>
+      <c r="AN24" s="79"/>
+      <c r="AO24" s="79"/>
+      <c r="AP24" s="79"/>
+      <c r="AQ24" s="79"/>
+      <c r="AR24" s="79"/>
+      <c r="AS24" s="79"/>
+      <c r="AT24" s="79"/>
+      <c r="AU24" s="79"/>
+      <c r="AV24" s="79"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="79"/>
+      <c r="AZ24" s="80"/>
+      <c r="BA24" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB24" s="71"/>
+      <c r="BC24" s="71"/>
+      <c r="BD24" s="71"/>
+      <c r="BE24" s="71"/>
+      <c r="BF24" s="71"/>
+      <c r="BG24" s="71"/>
+      <c r="BH24" s="72"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="1"/>
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="1"/>
+      <c r="CV24" s="1"/>
+      <c r="CW24" s="1"/>
+      <c r="CX24" s="1"/>
+      <c r="CY24" s="1"/>
+      <c r="CZ24" s="1"/>
+      <c r="DA24" s="1"/>
+      <c r="DB24" s="1"/>
+      <c r="DC24" s="1"/>
+      <c r="DD24" s="1"/>
+      <c r="DE24" s="1"/>
+      <c r="DF24" s="1"/>
+      <c r="DG24" s="1"/>
+      <c r="DH24" s="1"/>
+      <c r="DI24" s="1"/>
+      <c r="DJ24" s="1"/>
+      <c r="DK24" s="1"/>
+      <c r="DL24" s="1"/>
+      <c r="DM24" s="1"/>
+      <c r="DN24" s="1"/>
+      <c r="DO24" s="1"/>
+      <c r="DP24" s="1"/>
+      <c r="DQ24" s="1"/>
+      <c r="DR24" s="1"/>
+      <c r="DS24" s="1"/>
+      <c r="DT24" s="1"/>
+      <c r="DU24" s="1"/>
+      <c r="DV24" s="1"/>
+      <c r="DW24" s="1"/>
+      <c r="DX24" s="1"/>
+      <c r="DY24" s="1"/>
+      <c r="DZ24" s="1"/>
+      <c r="EA24" s="1"/>
+      <c r="EB24" s="1"/>
+      <c r="EC24" s="1"/>
+      <c r="ED24" s="1"/>
+      <c r="EE24" s="1"/>
+      <c r="EF24" s="1"/>
+      <c r="EG24" s="1"/>
+      <c r="EH24" s="1"/>
+      <c r="EI24" s="1"/>
+      <c r="EJ24" s="1"/>
+      <c r="EK24" s="1"/>
+      <c r="EL24" s="1"/>
+      <c r="EM24" s="1"/>
+      <c r="EN24" s="1"/>
+      <c r="EO24" s="1"/>
+      <c r="EP24" s="1"/>
+      <c r="EQ24" s="1"/>
+      <c r="ER24" s="1"/>
+      <c r="ES24" s="1"/>
+      <c r="ET24" s="1"/>
+      <c r="EU24" s="1"/>
+      <c r="EV24" s="1"/>
+      <c r="EW24" s="1"/>
+      <c r="EX24" s="1"/>
+      <c r="EY24" s="1"/>
+      <c r="EZ24" s="1"/>
+      <c r="FA24" s="1"/>
+      <c r="FB24" s="1"/>
+      <c r="FC24" s="1"/>
+      <c r="FD24" s="1"/>
+      <c r="FE24" s="1"/>
+      <c r="FF24" s="1"/>
+      <c r="FG24" s="1"/>
+      <c r="FH24" s="1"/>
+      <c r="FI24" s="1"/>
+      <c r="FJ24" s="1"/>
+      <c r="FK24" s="1"/>
+      <c r="FL24" s="1"/>
+      <c r="FM24" s="1"/>
+      <c r="FN24" s="1"/>
+      <c r="FO24" s="1"/>
+      <c r="FP24" s="1"/>
+      <c r="FQ24" s="1"/>
+      <c r="FR24" s="1"/>
+      <c r="FS24" s="1"/>
+      <c r="FT24" s="1"/>
+      <c r="FU24" s="1"/>
+      <c r="FV24" s="1"/>
+      <c r="FW24" s="1"/>
+      <c r="FX24" s="1"/>
+      <c r="FY24" s="1"/>
+      <c r="FZ24" s="1"/>
+      <c r="GA24" s="1"/>
+      <c r="GB24" s="1"/>
+      <c r="GC24" s="1"/>
+      <c r="GD24" s="1"/>
+      <c r="GE24" s="1"/>
+      <c r="GF24" s="1"/>
+      <c r="GG24" s="1"/>
+      <c r="GH24" s="1"/>
+      <c r="GI24" s="1"/>
+      <c r="GJ24" s="1"/>
+      <c r="GK24" s="1"/>
+      <c r="GL24" s="1"/>
+      <c r="GM24" s="1"/>
+      <c r="GN24" s="1"/>
+      <c r="GO24" s="1"/>
+      <c r="GP24" s="1"/>
+      <c r="GQ24" s="1"/>
+      <c r="GR24" s="1"/>
+      <c r="GS24" s="1"/>
+      <c r="GT24" s="1"/>
+      <c r="GU24" s="1"/>
+      <c r="GV24" s="1"/>
+      <c r="GW24" s="1"/>
+      <c r="GX24" s="1"/>
+      <c r="GY24" s="1"/>
+      <c r="GZ24" s="1"/>
+      <c r="HA24" s="1"/>
+      <c r="HB24" s="1"/>
+      <c r="HC24" s="1"/>
+      <c r="HD24" s="1"/>
+      <c r="HE24" s="1"/>
+      <c r="HF24" s="1"/>
+      <c r="HG24" s="1"/>
+      <c r="HH24" s="1"/>
+      <c r="HI24" s="1"/>
+      <c r="HJ24" s="1"/>
+      <c r="HK24" s="1"/>
+      <c r="HL24" s="1"/>
+      <c r="HM24" s="1"/>
+      <c r="HN24" s="1"/>
+      <c r="HO24" s="1"/>
+      <c r="HP24" s="1"/>
+      <c r="HQ24" s="1"/>
+      <c r="HR24" s="1"/>
+      <c r="HS24" s="1"/>
+      <c r="HT24" s="1"/>
+      <c r="HU24" s="1"/>
+      <c r="HV24" s="1"/>
+      <c r="HW24" s="1"/>
+      <c r="HX24" s="1"/>
+      <c r="HY24" s="1"/>
+      <c r="HZ24" s="1"/>
+      <c r="IA24" s="1"/>
+      <c r="IB24" s="1"/>
+      <c r="IC24" s="1"/>
+      <c r="ID24" s="1"/>
+      <c r="IE24" s="1"/>
+      <c r="IF24" s="1"/>
+      <c r="IG24" s="1"/>
+      <c r="IH24" s="1"/>
+      <c r="II24" s="1"/>
+      <c r="IJ24" s="1"/>
+      <c r="IK24" s="1"/>
+      <c r="IL24" s="1"/>
+      <c r="IM24" s="1"/>
+      <c r="IN24" s="1"/>
+      <c r="IO24" s="1"/>
+      <c r="IP24" s="1"/>
+      <c r="IQ24" s="1"/>
+      <c r="IR24" s="1"/>
+      <c r="IS24" s="1"/>
+      <c r="IT24" s="1"/>
+      <c r="IU24" s="1"/>
+      <c r="IV24" s="1"/>
+      <c r="IW24" s="1"/>
+      <c r="IX24" s="1"/>
+      <c r="IY24" s="1"/>
+    </row>
+    <row r="25" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="32">
+        <v>1</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="76"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="76"/>
+      <c r="AZ25" s="77"/>
+      <c r="BA25" s="73"/>
+      <c r="BB25" s="73"/>
+      <c r="BC25" s="73"/>
+      <c r="BD25" s="73"/>
+      <c r="BE25" s="73"/>
+      <c r="BF25" s="73"/>
+      <c r="BG25" s="73"/>
+      <c r="BH25" s="74"/>
+      <c r="BI25" s="38"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
+      <c r="CW25" s="1"/>
+      <c r="CX25" s="1"/>
+      <c r="CY25" s="1"/>
+      <c r="CZ25" s="1"/>
+      <c r="DA25" s="1"/>
+      <c r="DB25" s="1"/>
+      <c r="DC25" s="1"/>
+      <c r="DD25" s="1"/>
+      <c r="DE25" s="1"/>
+      <c r="DF25" s="1"/>
+      <c r="DG25" s="1"/>
+      <c r="DH25" s="1"/>
+      <c r="DI25" s="1"/>
+      <c r="DJ25" s="1"/>
+      <c r="DK25" s="1"/>
+      <c r="DL25" s="1"/>
+      <c r="DM25" s="1"/>
+      <c r="DN25" s="1"/>
+      <c r="DO25" s="1"/>
+      <c r="DP25" s="1"/>
+      <c r="DQ25" s="1"/>
+      <c r="DR25" s="1"/>
+      <c r="DS25" s="1"/>
+      <c r="DT25" s="1"/>
+      <c r="DU25" s="1"/>
+      <c r="DV25" s="1"/>
+      <c r="DW25" s="1"/>
+      <c r="DX25" s="1"/>
+      <c r="DY25" s="1"/>
+      <c r="DZ25" s="1"/>
+      <c r="EA25" s="1"/>
+      <c r="EB25" s="1"/>
+      <c r="EC25" s="1"/>
+      <c r="ED25" s="1"/>
+      <c r="EE25" s="1"/>
+      <c r="EF25" s="1"/>
+      <c r="EG25" s="1"/>
+      <c r="EH25" s="1"/>
+      <c r="EI25" s="1"/>
+      <c r="EJ25" s="1"/>
+      <c r="EK25" s="1"/>
+      <c r="EL25" s="1"/>
+      <c r="EM25" s="1"/>
+      <c r="EN25" s="1"/>
+      <c r="EO25" s="1"/>
+      <c r="EP25" s="1"/>
+      <c r="EQ25" s="1"/>
+      <c r="ER25" s="1"/>
+      <c r="ES25" s="1"/>
+      <c r="ET25" s="1"/>
+      <c r="EU25" s="1"/>
+      <c r="EV25" s="1"/>
+      <c r="EW25" s="1"/>
+      <c r="EX25" s="1"/>
+      <c r="EY25" s="1"/>
+      <c r="EZ25" s="1"/>
+      <c r="FA25" s="1"/>
+      <c r="FB25" s="1"/>
+      <c r="FC25" s="1"/>
+      <c r="FD25" s="1"/>
+      <c r="FE25" s="1"/>
+      <c r="FF25" s="1"/>
+      <c r="FG25" s="1"/>
+      <c r="FH25" s="1"/>
+      <c r="FI25" s="1"/>
+      <c r="FJ25" s="1"/>
+      <c r="FK25" s="1"/>
+      <c r="FL25" s="1"/>
+      <c r="FM25" s="1"/>
+      <c r="FN25" s="1"/>
+      <c r="FO25" s="1"/>
+      <c r="FP25" s="1"/>
+      <c r="FQ25" s="1"/>
+      <c r="FR25" s="1"/>
+      <c r="FS25" s="1"/>
+      <c r="FT25" s="1"/>
+      <c r="FU25" s="1"/>
+      <c r="FV25" s="1"/>
+      <c r="FW25" s="1"/>
+      <c r="FX25" s="1"/>
+      <c r="FY25" s="1"/>
+      <c r="FZ25" s="1"/>
+      <c r="GA25" s="1"/>
+      <c r="GB25" s="1"/>
+      <c r="GC25" s="1"/>
+      <c r="GD25" s="1"/>
+      <c r="GE25" s="1"/>
+      <c r="GF25" s="1"/>
+      <c r="GG25" s="1"/>
+      <c r="GH25" s="1"/>
+      <c r="GI25" s="1"/>
+      <c r="GJ25" s="1"/>
+      <c r="GK25" s="1"/>
+      <c r="GL25" s="1"/>
+      <c r="GM25" s="1"/>
+      <c r="GN25" s="1"/>
+      <c r="GO25" s="1"/>
+      <c r="GP25" s="1"/>
+      <c r="GQ25" s="1"/>
+      <c r="GR25" s="1"/>
+      <c r="GS25" s="1"/>
+      <c r="GT25" s="1"/>
+      <c r="GU25" s="1"/>
+      <c r="GV25" s="1"/>
+      <c r="GW25" s="1"/>
+      <c r="GX25" s="1"/>
+      <c r="GY25" s="1"/>
+      <c r="GZ25" s="1"/>
+      <c r="HA25" s="1"/>
+      <c r="HB25" s="1"/>
+      <c r="HC25" s="1"/>
+      <c r="HD25" s="1"/>
+      <c r="HE25" s="1"/>
+      <c r="HF25" s="1"/>
+      <c r="HG25" s="1"/>
+      <c r="HH25" s="1"/>
+      <c r="HI25" s="1"/>
+      <c r="HJ25" s="1"/>
+      <c r="HK25" s="1"/>
+      <c r="HL25" s="1"/>
+      <c r="HM25" s="1"/>
+      <c r="HN25" s="1"/>
+      <c r="HO25" s="1"/>
+      <c r="HP25" s="1"/>
+      <c r="HQ25" s="1"/>
+      <c r="HR25" s="1"/>
+      <c r="HS25" s="1"/>
+      <c r="HT25" s="1"/>
+      <c r="HU25" s="1"/>
+      <c r="HV25" s="1"/>
+      <c r="HW25" s="1"/>
+      <c r="HX25" s="1"/>
+      <c r="HY25" s="1"/>
+      <c r="HZ25" s="1"/>
+      <c r="IA25" s="1"/>
+      <c r="IB25" s="1"/>
+      <c r="IC25" s="1"/>
+      <c r="ID25" s="1"/>
+      <c r="IE25" s="1"/>
+      <c r="IF25" s="1"/>
+      <c r="IG25" s="1"/>
+      <c r="IH25" s="1"/>
+      <c r="II25" s="1"/>
+      <c r="IJ25" s="1"/>
+      <c r="IK25" s="1"/>
+      <c r="IL25" s="1"/>
+      <c r="IM25" s="1"/>
+      <c r="IN25" s="1"/>
+      <c r="IO25" s="1"/>
+      <c r="IP25" s="1"/>
+      <c r="IQ25" s="1"/>
+      <c r="IR25" s="1"/>
+      <c r="IS25" s="1"/>
+      <c r="IT25" s="1"/>
+      <c r="IU25" s="1"/>
+      <c r="IV25" s="1"/>
+      <c r="IW25" s="1"/>
+      <c r="IX25" s="1"/>
+      <c r="IY25" s="1"/>
+    </row>
+    <row r="26" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="32">
         <v>2</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="71"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="71"/>
-      <c r="AS22" s="71"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="72"/>
-      <c r="BA22" s="73"/>
-      <c r="BB22" s="73"/>
-      <c r="BC22" s="73"/>
-      <c r="BD22" s="73"/>
-      <c r="BE22" s="73"/>
-      <c r="BF22" s="73"/>
-      <c r="BG22" s="73"/>
-      <c r="BH22" s="74"/>
-      <c r="BI22" s="21"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="1"/>
-      <c r="BL22" s="1"/>
-      <c r="BM22" s="1"/>
-      <c r="BN22" s="1"/>
-      <c r="BO22" s="1"/>
-      <c r="BP22" s="1"/>
-      <c r="BQ22" s="1"/>
-      <c r="BR22" s="1"/>
-      <c r="BS22" s="1"/>
-      <c r="BT22" s="1"/>
-      <c r="BU22" s="1"/>
-      <c r="BV22" s="1"/>
-      <c r="BW22" s="1"/>
-      <c r="BX22" s="1"/>
-      <c r="BY22" s="1"/>
-      <c r="BZ22" s="1"/>
-      <c r="CA22" s="1"/>
-      <c r="CB22" s="1"/>
-      <c r="CC22" s="1"/>
-      <c r="CD22" s="1"/>
-      <c r="CE22" s="1"/>
-      <c r="CF22" s="1"/>
-      <c r="CG22" s="1"/>
-      <c r="CH22" s="1"/>
-      <c r="CI22" s="1"/>
-      <c r="CJ22" s="1"/>
-      <c r="CK22" s="1"/>
-      <c r="CL22" s="1"/>
-      <c r="CM22" s="1"/>
-      <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
-      <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
-      <c r="CT22" s="1"/>
-      <c r="CU22" s="1"/>
-      <c r="CV22" s="1"/>
-      <c r="CW22" s="1"/>
-      <c r="CX22" s="1"/>
-      <c r="CY22" s="1"/>
-      <c r="CZ22" s="1"/>
-      <c r="DA22" s="1"/>
-      <c r="DB22" s="1"/>
-      <c r="DC22" s="1"/>
-      <c r="DD22" s="1"/>
-      <c r="DE22" s="1"/>
-      <c r="DF22" s="1"/>
-      <c r="DG22" s="1"/>
-      <c r="DH22" s="1"/>
-      <c r="DI22" s="1"/>
-      <c r="DJ22" s="1"/>
-      <c r="DK22" s="1"/>
-      <c r="DL22" s="1"/>
-      <c r="DM22" s="1"/>
-      <c r="DN22" s="1"/>
-      <c r="DO22" s="1"/>
-      <c r="DP22" s="1"/>
-      <c r="DQ22" s="1"/>
-      <c r="DR22" s="1"/>
-      <c r="DS22" s="1"/>
-      <c r="DT22" s="1"/>
-      <c r="DU22" s="1"/>
-      <c r="DV22" s="1"/>
-      <c r="DW22" s="1"/>
-      <c r="DX22" s="1"/>
-      <c r="DY22" s="1"/>
-      <c r="DZ22" s="1"/>
-      <c r="EA22" s="1"/>
-      <c r="EB22" s="1"/>
-      <c r="EC22" s="1"/>
-      <c r="ED22" s="1"/>
-      <c r="EE22" s="1"/>
-      <c r="EF22" s="1"/>
-      <c r="EG22" s="1"/>
-      <c r="EH22" s="1"/>
-      <c r="EI22" s="1"/>
-      <c r="EJ22" s="1"/>
-      <c r="EK22" s="1"/>
-      <c r="EL22" s="1"/>
-      <c r="EM22" s="1"/>
-      <c r="EN22" s="1"/>
-      <c r="EO22" s="1"/>
-      <c r="EP22" s="1"/>
-      <c r="EQ22" s="1"/>
-      <c r="ER22" s="1"/>
-      <c r="ES22" s="1"/>
-      <c r="ET22" s="1"/>
-      <c r="EU22" s="1"/>
-      <c r="EV22" s="1"/>
-      <c r="EW22" s="1"/>
-      <c r="EX22" s="1"/>
-      <c r="EY22" s="1"/>
-      <c r="EZ22" s="1"/>
-      <c r="FA22" s="1"/>
-      <c r="FB22" s="1"/>
-      <c r="FC22" s="1"/>
-      <c r="FD22" s="1"/>
-      <c r="FE22" s="1"/>
-      <c r="FF22" s="1"/>
-      <c r="FG22" s="1"/>
-      <c r="FH22" s="1"/>
-      <c r="FI22" s="1"/>
-      <c r="FJ22" s="1"/>
-      <c r="FK22" s="1"/>
-      <c r="FL22" s="1"/>
-      <c r="FM22" s="1"/>
-      <c r="FN22" s="1"/>
-      <c r="FO22" s="1"/>
-      <c r="FP22" s="1"/>
-      <c r="FQ22" s="1"/>
-      <c r="FR22" s="1"/>
-      <c r="FS22" s="1"/>
-      <c r="FT22" s="1"/>
-      <c r="FU22" s="1"/>
-      <c r="FV22" s="1"/>
-      <c r="FW22" s="1"/>
-      <c r="FX22" s="1"/>
-      <c r="FY22" s="1"/>
-      <c r="FZ22" s="1"/>
-      <c r="GA22" s="1"/>
-      <c r="GB22" s="1"/>
-      <c r="GC22" s="1"/>
-      <c r="GD22" s="1"/>
-      <c r="GE22" s="1"/>
-      <c r="GF22" s="1"/>
-      <c r="GG22" s="1"/>
-      <c r="GH22" s="1"/>
-      <c r="GI22" s="1"/>
-      <c r="GJ22" s="1"/>
-      <c r="GK22" s="1"/>
-      <c r="GL22" s="1"/>
-      <c r="GM22" s="1"/>
-      <c r="GN22" s="1"/>
-      <c r="GO22" s="1"/>
-      <c r="GP22" s="1"/>
-      <c r="GQ22" s="1"/>
-      <c r="GR22" s="1"/>
-      <c r="GS22" s="1"/>
-      <c r="GT22" s="1"/>
-      <c r="GU22" s="1"/>
-      <c r="GV22" s="1"/>
-      <c r="GW22" s="1"/>
-      <c r="GX22" s="1"/>
-      <c r="GY22" s="1"/>
-      <c r="GZ22" s="1"/>
-      <c r="HA22" s="1"/>
-      <c r="HB22" s="1"/>
-      <c r="HC22" s="1"/>
-      <c r="HD22" s="1"/>
-      <c r="HE22" s="1"/>
-      <c r="HF22" s="1"/>
-      <c r="HG22" s="1"/>
-      <c r="HH22" s="1"/>
-      <c r="HI22" s="1"/>
-      <c r="HJ22" s="1"/>
-      <c r="HK22" s="1"/>
-      <c r="HL22" s="1"/>
-      <c r="HM22" s="1"/>
-      <c r="HN22" s="1"/>
-      <c r="HO22" s="1"/>
-      <c r="HP22" s="1"/>
-      <c r="HQ22" s="1"/>
-      <c r="HR22" s="1"/>
-      <c r="HS22" s="1"/>
-      <c r="HT22" s="1"/>
-      <c r="HU22" s="1"/>
-      <c r="HV22" s="1"/>
-      <c r="HW22" s="1"/>
-      <c r="HX22" s="1"/>
-      <c r="HY22" s="1"/>
-      <c r="HZ22" s="1"/>
-      <c r="IA22" s="1"/>
-      <c r="IB22" s="1"/>
-      <c r="IC22" s="1"/>
-      <c r="ID22" s="1"/>
-      <c r="IE22" s="1"/>
-      <c r="IF22" s="1"/>
-      <c r="IG22" s="1"/>
-      <c r="IH22" s="1"/>
-      <c r="II22" s="1"/>
-      <c r="IJ22" s="1"/>
-      <c r="IK22" s="1"/>
-      <c r="IL22" s="1"/>
-      <c r="IM22" s="1"/>
-      <c r="IN22" s="1"/>
-      <c r="IO22" s="1"/>
-      <c r="IP22" s="1"/>
-      <c r="IQ22" s="1"/>
-      <c r="IR22" s="1"/>
-      <c r="IS22" s="1"/>
-      <c r="IT22" s="1"/>
-      <c r="IU22" s="1"/>
-      <c r="IV22" s="1"/>
-      <c r="IW22" s="1"/>
-      <c r="IX22" s="1"/>
-      <c r="IY22" s="1"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="76"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="76"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="76"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="76"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="76"/>
+      <c r="AZ26" s="77"/>
+      <c r="BA26" s="73"/>
+      <c r="BB26" s="73"/>
+      <c r="BC26" s="73"/>
+      <c r="BD26" s="73"/>
+      <c r="BE26" s="73"/>
+      <c r="BF26" s="73"/>
+      <c r="BG26" s="73"/>
+      <c r="BH26" s="74"/>
+      <c r="BI26" s="21"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="1"/>
+      <c r="CZ26" s="1"/>
+      <c r="DA26" s="1"/>
+      <c r="DB26" s="1"/>
+      <c r="DC26" s="1"/>
+      <c r="DD26" s="1"/>
+      <c r="DE26" s="1"/>
+      <c r="DF26" s="1"/>
+      <c r="DG26" s="1"/>
+      <c r="DH26" s="1"/>
+      <c r="DI26" s="1"/>
+      <c r="DJ26" s="1"/>
+      <c r="DK26" s="1"/>
+      <c r="DL26" s="1"/>
+      <c r="DM26" s="1"/>
+      <c r="DN26" s="1"/>
+      <c r="DO26" s="1"/>
+      <c r="DP26" s="1"/>
+      <c r="DQ26" s="1"/>
+      <c r="DR26" s="1"/>
+      <c r="DS26" s="1"/>
+      <c r="DT26" s="1"/>
+      <c r="DU26" s="1"/>
+      <c r="DV26" s="1"/>
+      <c r="DW26" s="1"/>
+      <c r="DX26" s="1"/>
+      <c r="DY26" s="1"/>
+      <c r="DZ26" s="1"/>
+      <c r="EA26" s="1"/>
+      <c r="EB26" s="1"/>
+      <c r="EC26" s="1"/>
+      <c r="ED26" s="1"/>
+      <c r="EE26" s="1"/>
+      <c r="EF26" s="1"/>
+      <c r="EG26" s="1"/>
+      <c r="EH26" s="1"/>
+      <c r="EI26" s="1"/>
+      <c r="EJ26" s="1"/>
+      <c r="EK26" s="1"/>
+      <c r="EL26" s="1"/>
+      <c r="EM26" s="1"/>
+      <c r="EN26" s="1"/>
+      <c r="EO26" s="1"/>
+      <c r="EP26" s="1"/>
+      <c r="EQ26" s="1"/>
+      <c r="ER26" s="1"/>
+      <c r="ES26" s="1"/>
+      <c r="ET26" s="1"/>
+      <c r="EU26" s="1"/>
+      <c r="EV26" s="1"/>
+      <c r="EW26" s="1"/>
+      <c r="EX26" s="1"/>
+      <c r="EY26" s="1"/>
+      <c r="EZ26" s="1"/>
+      <c r="FA26" s="1"/>
+      <c r="FB26" s="1"/>
+      <c r="FC26" s="1"/>
+      <c r="FD26" s="1"/>
+      <c r="FE26" s="1"/>
+      <c r="FF26" s="1"/>
+      <c r="FG26" s="1"/>
+      <c r="FH26" s="1"/>
+      <c r="FI26" s="1"/>
+      <c r="FJ26" s="1"/>
+      <c r="FK26" s="1"/>
+      <c r="FL26" s="1"/>
+      <c r="FM26" s="1"/>
+      <c r="FN26" s="1"/>
+      <c r="FO26" s="1"/>
+      <c r="FP26" s="1"/>
+      <c r="FQ26" s="1"/>
+      <c r="FR26" s="1"/>
+      <c r="FS26" s="1"/>
+      <c r="FT26" s="1"/>
+      <c r="FU26" s="1"/>
+      <c r="FV26" s="1"/>
+      <c r="FW26" s="1"/>
+      <c r="FX26" s="1"/>
+      <c r="FY26" s="1"/>
+      <c r="FZ26" s="1"/>
+      <c r="GA26" s="1"/>
+      <c r="GB26" s="1"/>
+      <c r="GC26" s="1"/>
+      <c r="GD26" s="1"/>
+      <c r="GE26" s="1"/>
+      <c r="GF26" s="1"/>
+      <c r="GG26" s="1"/>
+      <c r="GH26" s="1"/>
+      <c r="GI26" s="1"/>
+      <c r="GJ26" s="1"/>
+      <c r="GK26" s="1"/>
+      <c r="GL26" s="1"/>
+      <c r="GM26" s="1"/>
+      <c r="GN26" s="1"/>
+      <c r="GO26" s="1"/>
+      <c r="GP26" s="1"/>
+      <c r="GQ26" s="1"/>
+      <c r="GR26" s="1"/>
+      <c r="GS26" s="1"/>
+      <c r="GT26" s="1"/>
+      <c r="GU26" s="1"/>
+      <c r="GV26" s="1"/>
+      <c r="GW26" s="1"/>
+      <c r="GX26" s="1"/>
+      <c r="GY26" s="1"/>
+      <c r="GZ26" s="1"/>
+      <c r="HA26" s="1"/>
+      <c r="HB26" s="1"/>
+      <c r="HC26" s="1"/>
+      <c r="HD26" s="1"/>
+      <c r="HE26" s="1"/>
+      <c r="HF26" s="1"/>
+      <c r="HG26" s="1"/>
+      <c r="HH26" s="1"/>
+      <c r="HI26" s="1"/>
+      <c r="HJ26" s="1"/>
+      <c r="HK26" s="1"/>
+      <c r="HL26" s="1"/>
+      <c r="HM26" s="1"/>
+      <c r="HN26" s="1"/>
+      <c r="HO26" s="1"/>
+      <c r="HP26" s="1"/>
+      <c r="HQ26" s="1"/>
+      <c r="HR26" s="1"/>
+      <c r="HS26" s="1"/>
+      <c r="HT26" s="1"/>
+      <c r="HU26" s="1"/>
+      <c r="HV26" s="1"/>
+      <c r="HW26" s="1"/>
+      <c r="HX26" s="1"/>
+      <c r="HY26" s="1"/>
+      <c r="HZ26" s="1"/>
+      <c r="IA26" s="1"/>
+      <c r="IB26" s="1"/>
+      <c r="IC26" s="1"/>
+      <c r="ID26" s="1"/>
+      <c r="IE26" s="1"/>
+      <c r="IF26" s="1"/>
+      <c r="IG26" s="1"/>
+      <c r="IH26" s="1"/>
+      <c r="II26" s="1"/>
+      <c r="IJ26" s="1"/>
+      <c r="IK26" s="1"/>
+      <c r="IL26" s="1"/>
+      <c r="IM26" s="1"/>
+      <c r="IN26" s="1"/>
+      <c r="IO26" s="1"/>
+      <c r="IP26" s="1"/>
+      <c r="IQ26" s="1"/>
+      <c r="IR26" s="1"/>
+      <c r="IS26" s="1"/>
+      <c r="IT26" s="1"/>
+      <c r="IU26" s="1"/>
+      <c r="IV26" s="1"/>
+      <c r="IW26" s="1"/>
+      <c r="IX26" s="1"/>
+      <c r="IY26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:Z20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S21:Z21"/>
-    <mergeCell ref="BA20:BH20"/>
-    <mergeCell ref="BA21:BH21"/>
-    <mergeCell ref="AA21:AZ21"/>
-    <mergeCell ref="AA20:AZ20"/>
-    <mergeCell ref="BA17:BH17"/>
+  <mergeCells count="88">
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="K17:R17"/>
     <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
     <mergeCell ref="AA17:AC17"/>
     <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="AL9:BI9"/>
-    <mergeCell ref="G6:BI6"/>
-    <mergeCell ref="G9:AE9"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="K16:R16"/>
     <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="BA16:BH16"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="DI12:DP12"/>
-    <mergeCell ref="DI13:DP13"/>
-    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:Z26"/>
+    <mergeCell ref="AA26:AZ26"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="K13:R13"/>
@@ -3695,41 +3957,51 @@
     <mergeCell ref="AA13:AH13"/>
     <mergeCell ref="S12:Z12"/>
     <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="BA20:BH20"/>
+    <mergeCell ref="AG20:AZ20"/>
+    <mergeCell ref="DI12:DP12"/>
+    <mergeCell ref="DI13:DP13"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AL9:BI9"/>
+    <mergeCell ref="G6:BI6"/>
+    <mergeCell ref="G9:AE9"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="G8:BI8"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="G7:BI7"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:AZ22"/>
-    <mergeCell ref="BA22:BH22"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="BA24:BH24"/>
+    <mergeCell ref="BA25:BH25"/>
+    <mergeCell ref="AA25:AZ25"/>
+    <mergeCell ref="AA24:AZ24"/>
+    <mergeCell ref="BA21:BH21"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA17 AD17" xr:uid="{B1B44088-480F-429F-B393-7ED97AC67037}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA21 AD21 AA17 AD17" xr:uid="{B1B44088-480F-429F-B393-7ED97AC67037}">
       <formula1>"あり,なし"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3744,7 +4016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IY59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:BI4"/>
     </sheetView>
   </sheetViews>
@@ -3755,83 +4027,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="77" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="76" t="str">
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="95" t="str">
         <f>クラス仕様!R1</f>
-        <v>部署管理</v>
+        <v>商品情報管理</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="77" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="76" t="str">
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="95" t="str">
         <f>クラス仕様!AE1</f>
-        <v>部署情報出力</v>
+        <v>商品検索出力</v>
       </c>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="77" t="s">
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="77" t="s">
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="95"/>
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95"/>
+      <c r="AY1" s="95"/>
+      <c r="AZ1" s="95"/>
+      <c r="BA1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="82"/>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="82"/>
-      <c r="BI1" s="82"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="94"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -4031,78 +4303,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="77" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="77" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="76">
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="95" t="str">
         <f>クラス仕様!G6</f>
-        <v>0</v>
+        <v>SearchResultService</v>
       </c>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="77" t="s">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="77" t="s">
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="82"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="82"/>
-      <c r="BI2" s="82"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -4302,69 +4574,69 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -4564,69 +4836,69 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="106"/>
-      <c r="BD5" s="106"/>
-      <c r="BE5" s="106"/>
-      <c r="BF5" s="106"/>
-      <c r="BG5" s="106"/>
-      <c r="BH5" s="106"/>
-      <c r="BI5" s="106"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="111"/>
+      <c r="AJ5" s="111"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="111"/>
+      <c r="AM5" s="111"/>
+      <c r="AN5" s="111"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="111"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="111"/>
+      <c r="BA5" s="111"/>
+      <c r="BB5" s="111"/>
+      <c r="BC5" s="111"/>
+      <c r="BD5" s="111"/>
+      <c r="BE5" s="111"/>
+      <c r="BF5" s="111"/>
+      <c r="BG5" s="111"/>
+      <c r="BH5" s="111"/>
+      <c r="BI5" s="111"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -5353,71 +5625,71 @@
       <c r="B8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90" t="s">
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90" t="s">
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90" t="s">
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="90"/>
-      <c r="BB8" s="90"/>
-      <c r="BC8" s="90"/>
-      <c r="BD8" s="90"/>
-      <c r="BE8" s="90"/>
-      <c r="BF8" s="90"/>
-      <c r="BG8" s="90"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="66"/>
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="66"/>
+      <c r="BB8" s="66"/>
+      <c r="BC8" s="66"/>
+      <c r="BD8" s="66"/>
+      <c r="BE8" s="66"/>
+      <c r="BF8" s="66"/>
+      <c r="BG8" s="66"/>
       <c r="BH8" s="21"/>
       <c r="BI8" s="38"/>
       <c r="BJ8" s="3"/>
@@ -5624,63 +5896,63 @@
       <c r="B9" s="32">
         <v>1</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="101"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="101"/>
-      <c r="AM9" s="101"/>
-      <c r="AN9" s="101"/>
-      <c r="AO9" s="101"/>
-      <c r="AP9" s="101"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="101"/>
-      <c r="AS9" s="101"/>
-      <c r="AT9" s="101"/>
-      <c r="AU9" s="101"/>
-      <c r="AV9" s="101"/>
-      <c r="AW9" s="101"/>
-      <c r="AX9" s="101"/>
-      <c r="AY9" s="101"/>
-      <c r="AZ9" s="101"/>
-      <c r="BA9" s="101"/>
-      <c r="BB9" s="101"/>
-      <c r="BC9" s="101"/>
-      <c r="BD9" s="101"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="101"/>
-      <c r="BG9" s="101"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="100"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="100"/>
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="100"/>
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="100"/>
+      <c r="AY9" s="100"/>
+      <c r="AZ9" s="100"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="100"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="100"/>
+      <c r="BE9" s="100"/>
+      <c r="BF9" s="100"/>
+      <c r="BG9" s="100"/>
       <c r="BH9" s="21"/>
       <c r="BI9" s="38"/>
       <c r="BJ9" s="3"/>
@@ -6411,71 +6683,71 @@
       <c r="B12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90" t="s">
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90" t="s">
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="90"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="90"/>
-      <c r="BB12" s="90"/>
-      <c r="BC12" s="90"/>
-      <c r="BD12" s="90"/>
-      <c r="BE12" s="90"/>
-      <c r="BF12" s="90"/>
-      <c r="BG12" s="90"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="66"/>
+      <c r="BB12" s="66"/>
+      <c r="BC12" s="66"/>
+      <c r="BD12" s="66"/>
+      <c r="BE12" s="66"/>
+      <c r="BF12" s="66"/>
+      <c r="BG12" s="66"/>
       <c r="BH12" s="21"/>
       <c r="BI12" s="38"/>
       <c r="BJ12" s="3"/>
@@ -6682,63 +6954,63 @@
       <c r="B13" s="32">
         <v>1</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="101"/>
-      <c r="AI13" s="101"/>
-      <c r="AJ13" s="101"/>
-      <c r="AK13" s="101"/>
-      <c r="AL13" s="101"/>
-      <c r="AM13" s="101"/>
-      <c r="AN13" s="101"/>
-      <c r="AO13" s="101"/>
-      <c r="AP13" s="101"/>
-      <c r="AQ13" s="101"/>
-      <c r="AR13" s="101"/>
-      <c r="AS13" s="101"/>
-      <c r="AT13" s="101"/>
-      <c r="AU13" s="101"/>
-      <c r="AV13" s="101"/>
-      <c r="AW13" s="101"/>
-      <c r="AX13" s="101"/>
-      <c r="AY13" s="101"/>
-      <c r="AZ13" s="101"/>
-      <c r="BA13" s="101"/>
-      <c r="BB13" s="101"/>
-      <c r="BC13" s="101"/>
-      <c r="BD13" s="101"/>
-      <c r="BE13" s="101"/>
-      <c r="BF13" s="101"/>
-      <c r="BG13" s="101"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="100"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="100"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="100"/>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="100"/>
+      <c r="AL13" s="100"/>
+      <c r="AM13" s="100"/>
+      <c r="AN13" s="100"/>
+      <c r="AO13" s="100"/>
+      <c r="AP13" s="100"/>
+      <c r="AQ13" s="100"/>
+      <c r="AR13" s="100"/>
+      <c r="AS13" s="100"/>
+      <c r="AT13" s="100"/>
+      <c r="AU13" s="100"/>
+      <c r="AV13" s="100"/>
+      <c r="AW13" s="100"/>
+      <c r="AX13" s="100"/>
+      <c r="AY13" s="100"/>
+      <c r="AZ13" s="100"/>
+      <c r="BA13" s="100"/>
+      <c r="BB13" s="100"/>
+      <c r="BC13" s="100"/>
+      <c r="BD13" s="100"/>
+      <c r="BE13" s="100"/>
+      <c r="BF13" s="100"/>
+      <c r="BG13" s="100"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="38"/>
       <c r="BJ13" s="3"/>
@@ -7271,77 +7543,77 @@
       <c r="B16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="84" t="s">
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="84" t="s">
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="111" t="s">
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="110" t="s">
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="110" t="s">
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="92"/>
-      <c r="AM16" s="92"/>
-      <c r="AN16" s="92"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="92"/>
-      <c r="AQ16" s="92"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="92"/>
-      <c r="AT16" s="92"/>
-      <c r="AU16" s="92"/>
-      <c r="AV16" s="92"/>
-      <c r="AW16" s="92"/>
-      <c r="AX16" s="92"/>
-      <c r="AY16" s="90" t="s">
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="91"/>
+      <c r="AO16" s="91"/>
+      <c r="AP16" s="91"/>
+      <c r="AQ16" s="91"/>
+      <c r="AR16" s="91"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AZ16" s="90"/>
-      <c r="BA16" s="90"/>
-      <c r="BB16" s="90"/>
-      <c r="BC16" s="90"/>
-      <c r="BD16" s="90"/>
-      <c r="BE16" s="90"/>
-      <c r="BF16" s="90"/>
-      <c r="BG16" s="90"/>
+      <c r="AZ16" s="66"/>
+      <c r="BA16" s="66"/>
+      <c r="BB16" s="66"/>
+      <c r="BC16" s="66"/>
+      <c r="BD16" s="66"/>
+      <c r="BE16" s="66"/>
+      <c r="BF16" s="66"/>
+      <c r="BG16" s="66"/>
       <c r="BH16" s="21"/>
       <c r="BI16" s="38"/>
       <c r="BJ16" s="3"/>
@@ -7556,59 +7828,59 @@
       <c r="H17" s="73"/>
       <c r="I17" s="73"/>
       <c r="J17" s="74"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="102" t="s">
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="102" t="s">
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="94"/>
-      <c r="AJ17" s="94"/>
-      <c r="AK17" s="94"/>
-      <c r="AL17" s="94"/>
-      <c r="AM17" s="94"/>
-      <c r="AN17" s="94"/>
-      <c r="AO17" s="94"/>
-      <c r="AP17" s="94"/>
-      <c r="AQ17" s="94"/>
-      <c r="AR17" s="94"/>
-      <c r="AS17" s="94"/>
-      <c r="AT17" s="94"/>
-      <c r="AU17" s="94"/>
-      <c r="AV17" s="94"/>
-      <c r="AW17" s="94"/>
-      <c r="AX17" s="94"/>
-      <c r="AY17" s="100"/>
-      <c r="AZ17" s="100"/>
-      <c r="BA17" s="100"/>
-      <c r="BB17" s="100"/>
-      <c r="BC17" s="100"/>
-      <c r="BD17" s="100"/>
-      <c r="BE17" s="100"/>
-      <c r="BF17" s="100"/>
-      <c r="BG17" s="100"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="83"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="83"/>
+      <c r="AO17" s="83"/>
+      <c r="AP17" s="83"/>
+      <c r="AQ17" s="83"/>
+      <c r="AR17" s="83"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="107"/>
+      <c r="AZ17" s="107"/>
+      <c r="BA17" s="107"/>
+      <c r="BB17" s="107"/>
+      <c r="BC17" s="107"/>
+      <c r="BD17" s="107"/>
+      <c r="BE17" s="107"/>
+      <c r="BF17" s="107"/>
+      <c r="BG17" s="107"/>
       <c r="BH17" s="21"/>
       <c r="BI17" s="38"/>
       <c r="BJ17" s="3"/>
@@ -7823,59 +8095,59 @@
       <c r="H18" s="73"/>
       <c r="I18" s="73"/>
       <c r="J18" s="74"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="102" t="s">
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="102" t="s">
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="94"/>
-      <c r="AO18" s="94"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="94"/>
-      <c r="AR18" s="94"/>
-      <c r="AS18" s="94"/>
-      <c r="AT18" s="94"/>
-      <c r="AU18" s="94"/>
-      <c r="AV18" s="94"/>
-      <c r="AW18" s="94"/>
-      <c r="AX18" s="94"/>
-      <c r="AY18" s="100"/>
-      <c r="AZ18" s="100"/>
-      <c r="BA18" s="100"/>
-      <c r="BB18" s="100"/>
-      <c r="BC18" s="100"/>
-      <c r="BD18" s="100"/>
-      <c r="BE18" s="100"/>
-      <c r="BF18" s="100"/>
-      <c r="BG18" s="100"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="83"/>
+      <c r="AO18" s="83"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="107"/>
+      <c r="AZ18" s="107"/>
+      <c r="BA18" s="107"/>
+      <c r="BB18" s="107"/>
+      <c r="BC18" s="107"/>
+      <c r="BD18" s="107"/>
+      <c r="BE18" s="107"/>
+      <c r="BF18" s="107"/>
+      <c r="BG18" s="107"/>
       <c r="BH18" s="21"/>
       <c r="BI18" s="38"/>
       <c r="BJ18" s="3"/>
@@ -8867,71 +9139,71 @@
       <c r="B22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90" t="s">
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90" t="s">
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90" t="s">
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="90"/>
-      <c r="AK22" s="90"/>
-      <c r="AL22" s="90"/>
-      <c r="AM22" s="90"/>
-      <c r="AN22" s="90"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="90"/>
-      <c r="AQ22" s="90"/>
-      <c r="AR22" s="90"/>
-      <c r="AS22" s="90"/>
-      <c r="AT22" s="90"/>
-      <c r="AU22" s="90"/>
-      <c r="AV22" s="90"/>
-      <c r="AW22" s="90"/>
-      <c r="AX22" s="90"/>
-      <c r="AY22" s="90"/>
-      <c r="AZ22" s="90"/>
-      <c r="BA22" s="90"/>
-      <c r="BB22" s="90"/>
-      <c r="BC22" s="90"/>
-      <c r="BD22" s="90"/>
-      <c r="BE22" s="90"/>
-      <c r="BF22" s="90"/>
-      <c r="BG22" s="90"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="66"/>
+      <c r="BA22" s="66"/>
+      <c r="BB22" s="66"/>
+      <c r="BC22" s="66"/>
+      <c r="BD22" s="66"/>
+      <c r="BE22" s="66"/>
+      <c r="BF22" s="66"/>
+      <c r="BG22" s="66"/>
       <c r="BH22" s="21"/>
       <c r="BI22" s="38"/>
       <c r="BJ22" s="3"/>
@@ -9138,63 +9410,63 @@
       <c r="B23" s="32">
         <v>1</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="101"/>
-      <c r="AJ23" s="101"/>
-      <c r="AK23" s="101"/>
-      <c r="AL23" s="101"/>
-      <c r="AM23" s="101"/>
-      <c r="AN23" s="101"/>
-      <c r="AO23" s="101"/>
-      <c r="AP23" s="101"/>
-      <c r="AQ23" s="101"/>
-      <c r="AR23" s="101"/>
-      <c r="AS23" s="101"/>
-      <c r="AT23" s="101"/>
-      <c r="AU23" s="101"/>
-      <c r="AV23" s="101"/>
-      <c r="AW23" s="101"/>
-      <c r="AX23" s="101"/>
-      <c r="AY23" s="101"/>
-      <c r="AZ23" s="101"/>
-      <c r="BA23" s="101"/>
-      <c r="BB23" s="101"/>
-      <c r="BC23" s="101"/>
-      <c r="BD23" s="101"/>
-      <c r="BE23" s="101"/>
-      <c r="BF23" s="101"/>
-      <c r="BG23" s="101"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="100"/>
+      <c r="AN23" s="100"/>
+      <c r="AO23" s="100"/>
+      <c r="AP23" s="100"/>
+      <c r="AQ23" s="100"/>
+      <c r="AR23" s="100"/>
+      <c r="AS23" s="100"/>
+      <c r="AT23" s="100"/>
+      <c r="AU23" s="100"/>
+      <c r="AV23" s="100"/>
+      <c r="AW23" s="100"/>
+      <c r="AX23" s="100"/>
+      <c r="AY23" s="100"/>
+      <c r="AZ23" s="100"/>
+      <c r="BA23" s="100"/>
+      <c r="BB23" s="100"/>
+      <c r="BC23" s="100"/>
+      <c r="BD23" s="100"/>
+      <c r="BE23" s="100"/>
+      <c r="BF23" s="100"/>
+      <c r="BG23" s="100"/>
       <c r="BH23" s="21"/>
       <c r="BI23" s="38"/>
       <c r="BJ23" s="3"/>
@@ -9401,63 +9673,63 @@
       <c r="B24" s="32">
         <v>2</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="101"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="101"/>
-      <c r="AM24" s="101"/>
-      <c r="AN24" s="101"/>
-      <c r="AO24" s="101"/>
-      <c r="AP24" s="101"/>
-      <c r="AQ24" s="101"/>
-      <c r="AR24" s="101"/>
-      <c r="AS24" s="101"/>
-      <c r="AT24" s="101"/>
-      <c r="AU24" s="101"/>
-      <c r="AV24" s="101"/>
-      <c r="AW24" s="101"/>
-      <c r="AX24" s="101"/>
-      <c r="AY24" s="101"/>
-      <c r="AZ24" s="101"/>
-      <c r="BA24" s="101"/>
-      <c r="BB24" s="101"/>
-      <c r="BC24" s="101"/>
-      <c r="BD24" s="101"/>
-      <c r="BE24" s="101"/>
-      <c r="BF24" s="101"/>
-      <c r="BG24" s="101"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="100"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="100"/>
+      <c r="AS24" s="100"/>
+      <c r="AT24" s="100"/>
+      <c r="AU24" s="100"/>
+      <c r="AV24" s="100"/>
+      <c r="AW24" s="100"/>
+      <c r="AX24" s="100"/>
+      <c r="AY24" s="100"/>
+      <c r="AZ24" s="100"/>
+      <c r="BA24" s="100"/>
+      <c r="BB24" s="100"/>
+      <c r="BC24" s="100"/>
+      <c r="BD24" s="100"/>
+      <c r="BE24" s="100"/>
+      <c r="BF24" s="100"/>
+      <c r="BG24" s="100"/>
       <c r="BH24" s="21"/>
       <c r="BI24" s="38"/>
       <c r="BJ24" s="3"/>
@@ -10183,67 +10455,67 @@
     </row>
     <row r="27" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="108"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="108"/>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="108"/>
-      <c r="AA27" s="108"/>
-      <c r="AB27" s="108"/>
-      <c r="AC27" s="108"/>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="108"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="108"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="108"/>
-      <c r="AJ27" s="108"/>
-      <c r="AK27" s="108"/>
-      <c r="AL27" s="108"/>
-      <c r="AM27" s="108"/>
-      <c r="AN27" s="108"/>
-      <c r="AO27" s="108"/>
-      <c r="AP27" s="108"/>
-      <c r="AQ27" s="108"/>
-      <c r="AR27" s="108"/>
-      <c r="AS27" s="108"/>
-      <c r="AT27" s="108"/>
-      <c r="AU27" s="108"/>
-      <c r="AV27" s="108"/>
-      <c r="AW27" s="108"/>
-      <c r="AX27" s="108"/>
-      <c r="AY27" s="108"/>
-      <c r="AZ27" s="108"/>
-      <c r="BA27" s="108"/>
-      <c r="BB27" s="108"/>
-      <c r="BC27" s="108"/>
-      <c r="BD27" s="108"/>
-      <c r="BE27" s="108"/>
-      <c r="BF27" s="108"/>
-      <c r="BG27" s="108"/>
-      <c r="BH27" s="109"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="102"/>
+      <c r="AF27" s="102"/>
+      <c r="AG27" s="102"/>
+      <c r="AH27" s="102"/>
+      <c r="AI27" s="102"/>
+      <c r="AJ27" s="102"/>
+      <c r="AK27" s="102"/>
+      <c r="AL27" s="102"/>
+      <c r="AM27" s="102"/>
+      <c r="AN27" s="102"/>
+      <c r="AO27" s="102"/>
+      <c r="AP27" s="102"/>
+      <c r="AQ27" s="102"/>
+      <c r="AR27" s="102"/>
+      <c r="AS27" s="102"/>
+      <c r="AT27" s="102"/>
+      <c r="AU27" s="102"/>
+      <c r="AV27" s="102"/>
+      <c r="AW27" s="102"/>
+      <c r="AX27" s="102"/>
+      <c r="AY27" s="102"/>
+      <c r="AZ27" s="102"/>
+      <c r="BA27" s="102"/>
+      <c r="BB27" s="102"/>
+      <c r="BC27" s="102"/>
+      <c r="BD27" s="102"/>
+      <c r="BE27" s="102"/>
+      <c r="BF27" s="102"/>
+      <c r="BG27" s="102"/>
+      <c r="BH27" s="103"/>
       <c r="BI27" s="42"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
@@ -18765,6 +19037,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="AE18:AX18"/>
+    <mergeCell ref="AY18:BG18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="AA24:BG24"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:BG22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="AA9:BG9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="AA12:BG12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:BG13"/>
     <mergeCell ref="AC16:AD16"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="S23:Z23"/>
@@ -18781,61 +19108,6 @@
     <mergeCell ref="AY17:BG17"/>
     <mergeCell ref="K16:R16"/>
     <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AA12:BG12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AA13:BG13"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="AA9:BG9"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="AE18:AX18"/>
-    <mergeCell ref="AY18:BG18"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:Z24"/>
-    <mergeCell ref="AA24:BG24"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:BG22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">
@@ -18857,12 +19129,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -18994,6 +19260,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19004,15 +19276,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19030,6 +19293,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
